--- a/academias/Lengua y Comunicación - Estadisticos 20242.xlsx
+++ b/academias/Lengua y Comunicación - Estadisticos 20242.xlsx
@@ -630,19 +630,19 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>86.7</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -662,19 +662,19 @@
         <v>117</v>
       </c>
       <c r="E6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1">
-        <v>80.3</v>
+        <v>81.2</v>
       </c>
       <c r="H6" s="1">
-        <v>19.7</v>
+        <v>18.8</v>
       </c>
       <c r="I6" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>16.1</v>
       </c>
       <c r="I9" s="2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -849,7 +849,7 @@
         <v>61.5</v>
       </c>
       <c r="I11" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>7.5</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1000,25 +1000,25 @@
         <v>361</v>
       </c>
       <c r="E16">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F16">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="1">
-        <v>70.90000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="H16" s="1">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="I16" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,25 +1089,25 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1124,25 +1124,25 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1159,25 +1159,25 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1194,25 +1194,25 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1226,25 +1226,25 @@
         <v>117</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F6">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J6">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1261,25 +1261,25 @@
         <v>37</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>75.7</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>24.3</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1296,25 +1296,25 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J8">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1331,25 +1331,25 @@
         <v>31</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>90.3</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1366,25 +1366,25 @@
         <v>49</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>4.1</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J10">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1401,25 +1401,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>17.9</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1436,25 +1436,25 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>86.8</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>13.2</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1468,25 +1468,25 @@
         <v>233</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="F13">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>11.6</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J13">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1503,25 +1503,25 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>18.2</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1535,25 +1535,25 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>18.2</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1564,25 +1564,25 @@
         <v>361</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="F16">
-        <v>361</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J16">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1653,19 +1653,19 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>69.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>96.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1723,19 +1723,19 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>69.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1758,19 +1758,19 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>86.7</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1790,19 +1790,19 @@
         <v>117</v>
       </c>
       <c r="E6">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>80.3</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1825,19 +1825,19 @@
         <v>37</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
-        <v>67.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="H7" s="1">
-        <v>32.4</v>
+        <v>24.3</v>
       </c>
       <c r="I7" s="2">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1860,19 +1860,19 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>82.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>17.9</v>
+        <v>2.6</v>
       </c>
       <c r="I8" s="2">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1895,25 +1895,25 @@
         <v>31</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>83.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="H9" s="1">
-        <v>16.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1930,19 +1930,19 @@
         <v>49</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>53.1</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>46.9</v>
+        <v>4.1</v>
       </c>
       <c r="I10" s="2">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
-        <v>38.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>61.5</v>
+        <v>17.9</v>
       </c>
       <c r="I11" s="2">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2000,19 +2000,19 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>76.3</v>
+        <v>86.8</v>
       </c>
       <c r="H12" s="1">
-        <v>23.7</v>
+        <v>13.2</v>
       </c>
       <c r="I12" s="2">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2032,25 +2032,25 @@
         <v>233</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1">
-        <v>65.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>34.3</v>
+        <v>11.6</v>
       </c>
       <c r="I13" s="2">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2079,7 +2079,7 @@
         <v>18.2</v>
       </c>
       <c r="I14" s="2">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>18.2</v>
       </c>
       <c r="I15" s="2">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>361</v>
       </c>
       <c r="E16">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="F16">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
-        <v>70.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1">
-        <v>29.1</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
